--- a/figures-and-tables-for-the-Github/tables_for_github.xlsx
+++ b/figures-and-tables-for-the-Github/tables_for_github.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limeybean/Documents/figures-and-tables-for-the-Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limeybean/Documents/GitHub/Anacapa/figures-and-tables-for-the-Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="25360" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="3840" windowWidth="25360" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Primer Name</t>
   </si>
@@ -41,21 +41,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>12S</t>
-  </si>
-  <si>
-    <t>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAG</t>
-  </si>
-  <si>
-    <t>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG</t>
-  </si>
-  <si>
-    <t>Miya et al. 2013</t>
-  </si>
-  <si>
-    <t>16S</t>
-  </si>
-  <si>
     <t>GTGYCAGCMGCCGCGGTAA</t>
   </si>
   <si>
@@ -89,9 +74,6 @@
     <t>Bradley et al. 2016</t>
   </si>
   <si>
-    <t>18S</t>
-  </si>
-  <si>
     <t>GTACACACCGCCCGTC</t>
   </si>
   <si>
@@ -101,9 +83,6 @@
     <t>Amaral-Zettler et al. 2009</t>
   </si>
   <si>
-    <t>Plant ITS2</t>
-  </si>
-  <si>
     <t>ATGCGATACTTGGTGTGAAT</t>
   </si>
   <si>
@@ -125,9 +104,6 @@
     <t>Leray et al. 2013</t>
   </si>
   <si>
-    <t>Fungal ITS</t>
-  </si>
-  <si>
     <t>GGAAGTAAAAGTCGTAACAAGG</t>
   </si>
   <si>
@@ -138,6 +114,33 @@
   </si>
   <si>
     <t>Table 1. Primers used to build the publicly available CRUX libraries</t>
+  </si>
+  <si>
+    <t>12S - MiFish</t>
+  </si>
+  <si>
+    <t>16S - EMP</t>
+  </si>
+  <si>
+    <t>18S - EMP</t>
+  </si>
+  <si>
+    <t>PITS - Plant ITS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITS - Fungal ITS </t>
+  </si>
+  <si>
+    <t>EMP - primers used for the Earth Microbiome Project</t>
+  </si>
+  <si>
+    <t>GTCGGTAAAACTCGTGCCAGC</t>
+  </si>
+  <si>
+    <t>CATAGTGGGGTATCTAATCCCAGTTTG</t>
+  </si>
+  <si>
+    <t>Miya et al. 2015</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,7 +525,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -544,114 +547,119 @@
     </row>
     <row r="4" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/figures-and-tables-for-the-Github/tables_for_github.xlsx
+++ b/figures-and-tables-for-the-Github/tables_for_github.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="3840" windowWidth="25360" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Primer Name</t>
   </si>
@@ -47,9 +47,6 @@
     <t>GGACTACNVGGGTWTCTAAT</t>
   </si>
   <si>
-    <t>Parada et al. 2016</t>
-  </si>
-  <si>
     <t>18S V4</t>
   </si>
   <si>
@@ -59,39 +56,24 @@
     <t>ACTTTCGTTCTTGAT</t>
   </si>
   <si>
-    <t>Stoeck et al.2010, Bradley et al. 2016</t>
-  </si>
-  <si>
-    <t>18S V8-9</t>
-  </si>
-  <si>
     <t>ATAACAGGTCTGTGATGCCCT</t>
   </si>
   <si>
     <t>CCTTCYGCAGGTTCACCTAC</t>
   </si>
   <si>
-    <t>Bradley et al. 2016</t>
-  </si>
-  <si>
     <t>GTACACACCGCCCGTC</t>
   </si>
   <si>
     <t>TGATCCTTCTGCAGGTTCACCTAC</t>
   </si>
   <si>
-    <t>Amaral-Zettler et al. 2009</t>
-  </si>
-  <si>
     <t>ATGCGATACTTGGTGTGAAT</t>
   </si>
   <si>
     <t>GACGCTTCTCCAGACTACAAT</t>
   </si>
   <si>
-    <t>Gu et al. 2013</t>
-  </si>
-  <si>
     <t>CO1</t>
   </si>
   <si>
@@ -101,53 +83,298 @@
     <t>TANACYTCnGGRTGNCCRAARAAYCA</t>
   </si>
   <si>
-    <t>Leray et al. 2013</t>
-  </si>
-  <si>
     <t>GGAAGTAAAAGTCGTAACAAGG</t>
   </si>
   <si>
     <t>CAAGAGATCCGTTGTTGAAAGTT</t>
   </si>
   <si>
-    <t>White et al. 1990, Epp et al. 2012</t>
-  </si>
-  <si>
     <t>Table 1. Primers used to build the publicly available CRUX libraries</t>
   </si>
   <si>
-    <t>12S - MiFish</t>
-  </si>
-  <si>
-    <t>16S - EMP</t>
-  </si>
-  <si>
-    <t>18S - EMP</t>
-  </si>
-  <si>
-    <t>PITS - Plant ITS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITS - Fungal ITS </t>
-  </si>
-  <si>
-    <t>EMP - primers used for the Earth Microbiome Project</t>
-  </si>
-  <si>
     <t>GTCGGTAAAACTCGTGCCAGC</t>
   </si>
   <si>
     <t>CATAGTGGGGTATCTAATCCCAGTTTG</t>
   </si>
   <si>
-    <t>Miya et al. 2015</t>
+    <t>12S</t>
+  </si>
+  <si>
+    <t>MiFish-U F</t>
+  </si>
+  <si>
+    <t>MiFish-U R</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Miya </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+  </si>
+  <si>
+    <t>16S</t>
+  </si>
+  <si>
+    <t>515F</t>
+  </si>
+  <si>
+    <t>806R</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">see Caporaso </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>., 2012</t>
+    </r>
+  </si>
+  <si>
+    <t>Reuk454FWD1</t>
+  </si>
+  <si>
+    <t>V4r</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F: Stoeck </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.2010, R: Bradley </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2016</t>
+    </r>
+  </si>
+  <si>
+    <t>18S V8-V9</t>
+  </si>
+  <si>
+    <t>V8f</t>
+  </si>
+  <si>
+    <t>1510r</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bradley </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2016</t>
+    </r>
+  </si>
+  <si>
+    <t>18S</t>
+  </si>
+  <si>
+    <t>Euk_1391f</t>
+  </si>
+  <si>
+    <t>EukBr</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amaral-Zettler </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2009</t>
+    </r>
+  </si>
+  <si>
+    <t>Plant ITS2</t>
+  </si>
+  <si>
+    <t>ITS-S2F</t>
+  </si>
+  <si>
+    <t>ITS-S3R</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gu </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2013</t>
+    </r>
+  </si>
+  <si>
+    <t>mlCOIintF</t>
+  </si>
+  <si>
+    <t>jgHCO2198</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F: Leray </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2013, R: Geller et al. 2013</t>
+    </r>
+  </si>
+  <si>
+    <t>Fungal ITS</t>
+  </si>
+  <si>
+    <t>ITS5</t>
+  </si>
+  <si>
+    <t>5.8S</t>
+  </si>
+  <si>
+    <t>F: White et al., 1990; R: Epp et al. 2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,15 +390,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="12"/>
-      <color rgb="FF333132"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -220,16 +444,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,162 +732,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="G9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="G10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>34</v>
+      <c r="G12" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>